--- a/biology/Zoologie/Gigantactinidae/Gigantactinidae.xlsx
+++ b/biology/Zoologie/Gigantactinidae/Gigantactinidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gigantactinidae sont une famille de poissons de l'ordre des Lophiiformes, vivant dans les abysses. Ils se distinguent par la présence d'un leurre particulièrement long, qui est parfois plus grand que le poisson[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gigantactinidae sont une famille de poissons de l'ordre des Lophiiformes, vivant dans les abysses. Ils se distinguent par la présence d'un leurre particulièrement long, qui est parfois plus grand que le poisson.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce nom vient du grec gigas = gigantesque et aktis = rayon.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les femelles sont facilement reconnaissables, leur corps est allongé et leur tête est assez petite. La plus grande femelle connue mesure 43,5 cm et 2,2 cm est le record de taille pour le mâle. Cette famille comprend 22 espèces, comprises dans deux genres. On sait très peu de choses sur leur écologie, mais ces poissons ont un mode de vie benthique. Ils arrivent qu'ils se laissent dériver, immobiles, pour attirer leurs proies[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les femelles sont facilement reconnaissables, leur corps est allongé et leur tête est assez petite. La plus grande femelle connue mesure 43,5 cm et 2,2 cm est le record de taille pour le mâle. Cette famille comprend 22 espèces, comprises dans deux genres. On sait très peu de choses sur leur écologie, mais ces poissons ont un mode de vie benthique. Ils arrivent qu'ils se laissent dériver, immobiles, pour attirer leurs proies,.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Gigantactinidae sont répartis dans trois océans : L'océan Pacifique, Indien et Atlantique. Certaines espèces ont été enregistrées au sud du Groenland et dans l'océan austral. Ils vivent à des profondeurs dépassant 1 000 mètres[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Gigantactinidae sont répartis dans trois océans : L'océan Pacifique, Indien et Atlantique. Certaines espèces ont été enregistrées au sud du Groenland et dans l'océan austral. Ils vivent à des profondeurs dépassant 1 000 mètres,.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon FishBase                                            (2 mai 2016)[3] et World Register of Marine Species                               (2 mai 2016)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon FishBase                                            (2 mai 2016) et World Register of Marine Species                               (2 mai 2016) :
 genre Gigantactis Brauer, 1902
 Gigantactis balushkini Kharin, 1984
 Gigantactis elsmani Bertelsen, Pietsch &amp; Lavenberg, 1981
